--- a/data/trans_bre/P3A_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.9761159417237695</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.125339537449404</v>
+        <v>4.125339537449406</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2624995097413705</v>
@@ -649,7 +649,7 @@
         <v>0.2069838894112201</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4224942044876769</v>
+        <v>0.4224942044876773</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5280119793000254</v>
+        <v>-0.8065116992204926</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7098718189697317</v>
+        <v>-0.6251840935833057</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.214924832137249</v>
+        <v>-1.377985844580307</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.287914395296863</v>
+        <v>1.343326017287742</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2066312705549183</v>
+        <v>-0.2764984290578334</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1172261646216891</v>
+        <v>-0.1001802663846711</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2062156621050776</v>
+        <v>-0.232555900594094</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1091133768057573</v>
+        <v>0.1133287068265781</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.983408853614101</v>
+        <v>1.733789890610388</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.533250863708135</v>
+        <v>3.375465766720003</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.360593064430221</v>
+        <v>3.00292629292231</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.808124621522266</v>
+        <v>6.707089473528331</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.259950984817652</v>
+        <v>1.083755952621593</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.796977649170002</v>
+        <v>0.7768484595214603</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8940382965040471</v>
+        <v>0.7666157848844268</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.859452436746821</v>
+        <v>0.8306757717963826</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.001395977548982255</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05674893067083922</v>
+        <v>0.05674893067083957</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2321428463272486</v>
@@ -749,7 +749,7 @@
         <v>-0.001148701748685444</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.02331929780414766</v>
+        <v>0.02331929780414781</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.485241976569746</v>
+        <v>-1.480135794988702</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.069178414476396</v>
+        <v>-0.9368982643579512</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.6967374108719501</v>
+        <v>-0.7177367910437793</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.9491201748299424</v>
+        <v>-0.8339687693772425</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5340445989696879</v>
+        <v>-0.5361334531779008</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4556830290950391</v>
+        <v>-0.4348691631293104</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4691576272388841</v>
+        <v>-0.4867748601772011</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3036819718937362</v>
+        <v>-0.278094241467591</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4854072947674861</v>
+        <v>0.5178909592749494</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8328207814758773</v>
+        <v>0.8521724223263129</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7525379309942908</v>
+        <v>0.7085578152068024</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9631859098522384</v>
+        <v>0.8835085312858457</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2738839124256737</v>
+        <v>0.3021414935333187</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5744465726671713</v>
+        <v>0.611784838873749</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9467139876282131</v>
+        <v>0.8027627078198157</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4937447088409571</v>
+        <v>0.4755714721807321</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.2159767981740499</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.05304142891985233</v>
+        <v>-0.05304142891985235</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.523300854820215</v>
+        <v>-7.824379710624144</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.731458616570249</v>
+        <v>-4.782002692836797</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.856947162615591</v>
+        <v>-1.924721530892399</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.372443770661774</v>
+        <v>-3.065565546366281</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5217891787453829</v>
+        <v>-0.5327669361013815</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4387002034962099</v>
+        <v>-0.455233065485269</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3703596729016037</v>
+        <v>-0.3658996877208046</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3794675695368462</v>
+        <v>-0.3513886373908185</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.06495316123607664</v>
+        <v>-0.2085314298747021</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.041767675016319</v>
+        <v>3.034835712063032</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.388543162838015</v>
+        <v>3.747118255488964</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.083720343139893</v>
+        <v>1.991133436079445</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.009212002316592551</v>
+        <v>-0.01188611578863452</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4426461317718303</v>
+        <v>0.4560002947589342</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.25624254981755</v>
+        <v>1.330408629397191</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3700930952411349</v>
+        <v>0.3661034880435913</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.5922794782588715</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.258720385205198</v>
+        <v>1.258720385205197</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2210031593578373</v>
@@ -949,7 +949,7 @@
         <v>0.2428423224213596</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2759171368871436</v>
+        <v>0.2759171368871435</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.879599317941695</v>
+        <v>-1.856056784061243</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.3145673027439177</v>
+        <v>-0.2802347612046616</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.2567343423509773</v>
+        <v>-0.1842617726018319</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2214511246640253</v>
+        <v>0.2678517055541507</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3967690681793161</v>
+        <v>-0.4002843037181166</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07506838062636069</v>
+        <v>-0.06559987340025744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1025963260885284</v>
+        <v>-0.07208404951212341</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.04498346787146161</v>
+        <v>0.05125673340780242</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.04792835493008102</v>
+        <v>0.01623859648264305</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.656320230030802</v>
+        <v>1.732885698700461</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.430088015886877</v>
+        <v>1.45952804120386</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.054802181441702</v>
+        <v>2.146855951326744</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.002122978595346174</v>
+        <v>0.004976775919606546</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4905046168916896</v>
+        <v>0.5376790103434484</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.672836168065407</v>
+        <v>0.7065177290256068</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5114005745586011</v>
+        <v>0.533827517125758</v>
       </c>
     </row>
     <row r="16">
